--- a/MatLab/Integration Project/Test.xlsx
+++ b/MatLab/Integration Project/Test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang\Documents\Summer Research 2018\MATT\MatLab\MATT_PATT_and_Optitrack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang\Documents\Summer Research 2018\Integration Project\MatLab\Integration Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="49248" yWindow="0" windowWidth="21672" windowHeight="9882"/>
+    <workbookView xWindow="54720" yWindow="0" windowWidth="21672" windowHeight="9882"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">delay(Seconds) </t>
   </si>
   <si>
-    <t>Z Coordinates</t>
-  </si>
-  <si>
     <t>X Coordinates</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Pan angle</t>
+  </si>
+  <si>
+    <t>Y Coordinates</t>
   </si>
 </sst>
 </file>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -382,13 +382,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -400,113 +400,113 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>100</v>
+        <v>840</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1270</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>43276.681375439817</v>
+        <v>43277.739809027778</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>-100</v>
+        <v>840</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1270</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>43276.681486493057</v>
+        <v>43277.739884780094</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>-100</v>
+        <v>840</v>
       </c>
       <c r="B4">
-        <v>-100</v>
+        <v>1270</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>43276.681606134262</v>
+        <v>43277.739960231484</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>100</v>
+        <v>840</v>
       </c>
       <c r="B5">
-        <v>-100</v>
+        <v>1270</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>43276.681732291669</v>
+        <v>43277.740035578703</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -515,37 +515,100 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>43276.681836724536</v>
+        <v>43277.740110902778</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>43276.681855138886</v>
+        <v>43277.740186249997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="1"/>
+      <c r="A8">
+        <v>840</v>
+      </c>
+      <c r="B8">
+        <v>1270</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43277.740261493054</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G9" s="1"/>
+      <c r="A9">
+        <v>840</v>
+      </c>
+      <c r="B9">
+        <v>1270</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43277.740336736111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>840</v>
+      </c>
+      <c r="B10">
+        <v>1270</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>43277.740412060186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
